--- a/Documentacion/guia_del_profesor/Documentación del Proyecto-20190916/matriz roles y funciones.xlsx
+++ b/Documentacion/guia_del_profesor/Documentación del Proyecto-20190916/matriz roles y funciones.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\guia_del_profesor\Documentación del Proyecto-20190916\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B27B5C-0EEC-4FDC-B217-AFD7A97654E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
+    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,22 +486,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -459,7 +511,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -480,7 +532,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -490,7 +542,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -500,7 +552,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -510,7 +562,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -520,7 +572,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -530,7 +582,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -542,7 +594,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -554,7 +606,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -564,7 +616,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -576,7 +628,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -588,7 +640,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -600,12 +652,12 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -613,7 +665,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -637,7 +689,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -649,7 +701,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -659,7 +711,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -667,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -678,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -686,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -697,7 +749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -712,24 +764,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
